--- a/01_data/Leap_Q_combined.xlsx
+++ b/01_data/Leap_Q_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataliehennig/Documents/language-and-emotion/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42734630-446F-044A-BB7A-A2C31D3A152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D58CDB9-AD14-A14F-985E-E3B69D9280BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="33600" windowHeight="20500" xr2:uid="{5D63B9C6-4C47-024D-A9E8-5A261856B1C4}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{5D63B9C6-4C47-024D-A9E8-5A261856B1C4}"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="2" r:id="rId1"/>
@@ -204,24 +204,6 @@
     <t>Farsighted</t>
   </si>
   <si>
-    <t>ee_01</t>
-  </si>
-  <si>
-    <t>ee_02</t>
-  </si>
-  <si>
-    <t>ee_03</t>
-  </si>
-  <si>
-    <t>ee_04</t>
-  </si>
-  <si>
-    <t>ee_07</t>
-  </si>
-  <si>
-    <t>ee_09</t>
-  </si>
-  <si>
     <t>ee_12</t>
   </si>
   <si>
@@ -2102,6 +2084,24 @@
   </si>
   <si>
     <t>not included in analysis</t>
+  </si>
+  <si>
+    <t>ee_1</t>
+  </si>
+  <si>
+    <t>ee_2</t>
+  </si>
+  <si>
+    <t>ee_3</t>
+  </si>
+  <si>
+    <t>ee_4</t>
+  </si>
+  <si>
+    <t>ee_7</t>
+  </si>
+  <si>
+    <t>ee_9</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3D09D5-7DB2-EA49-B786-49169A90297E}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2678,19 +2678,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2698,316 +2698,316 @@
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="15" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="15" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="34" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E15" s="35"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="37" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>659</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>665</v>
       </c>
       <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="40" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E31" s="42"/>
     </row>
@@ -3027,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0837D9BE-5256-AA4D-822C-71D8DD948064}">
   <dimension ref="A1:N539"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="107" workbookViewId="0">
-      <selection activeCell="O152" sqref="O152"/>
+    <sheetView tabSelected="1" topLeftCell="A371" zoomScale="137" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3053,43 +3053,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C1" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="H1" s="23" t="s">
         <v>588</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>594</v>
-      </c>
       <c r="I1" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="J1" s="43" t="s">
-        <v>583</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>582</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>590</v>
-      </c>
       <c r="N1" s="23" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
@@ -3428,7 +3428,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>49</v>
@@ -4248,7 +4248,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>50</v>
@@ -4330,7 +4330,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>51</v>
@@ -4371,7 +4371,7 @@
         <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>52</v>
@@ -4576,7 +4576,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -4617,7 +4617,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>51</v>
@@ -4740,7 +4740,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>53</v>
@@ -4781,7 +4781,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -4904,7 +4904,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>51</v>
@@ -4945,7 +4945,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>52</v>
@@ -4986,7 +4986,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -5021,16 +5021,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>681</v>
       </c>
       <c r="B49" s="2">
         <v>29</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E49" s="5">
         <v>7</v>
@@ -5062,13 +5062,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>682</v>
       </c>
       <c r="B50" s="2">
         <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -5103,16 +5103,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>683</v>
       </c>
       <c r="B51" s="2">
         <v>29</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E51" s="5">
         <v>7</v>
@@ -5144,16 +5144,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>684</v>
       </c>
       <c r="B52" s="2">
         <v>24</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E52" s="5">
         <v>10</v>
@@ -5185,16 +5185,16 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>685</v>
       </c>
       <c r="B53" s="2">
         <v>22</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E53" s="5">
         <v>7</v>
@@ -5226,13 +5226,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>686</v>
       </c>
       <c r="B54" s="2">
         <v>25</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -5267,16 +5267,16 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>20</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E55" s="5">
         <v>9</v>
@@ -5308,13 +5308,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>24</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -5349,16 +5349,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E57" s="5">
         <v>7</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -5431,13 +5431,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>23</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -5472,13 +5472,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>24</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -5513,16 +5513,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E61" s="5">
         <v>5</v>
@@ -5554,16 +5554,16 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E62" s="5">
         <v>12</v>
@@ -5595,16 +5595,16 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>22</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E63" s="5">
         <v>6</v>
@@ -5636,13 +5636,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>23</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -5677,16 +5677,16 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>20</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E65" s="5">
         <v>10</v>
@@ -5718,13 +5718,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -5759,13 +5759,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>20</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -5800,16 +5800,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E68" s="5">
         <v>10</v>
@@ -5841,13 +5841,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>23</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -5882,13 +5882,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -5923,13 +5923,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>20</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -5964,13 +5964,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>21</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -6005,13 +6005,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -6046,13 +6046,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>23</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -6087,16 +6087,16 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>21</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -6111,16 +6111,16 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>24</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E76" s="5">
         <v>6</v>
@@ -6152,16 +6152,16 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>22</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -6193,13 +6193,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>22</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -6234,13 +6234,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>18</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -6275,13 +6275,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>20</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -6316,13 +6316,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>20</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -6357,13 +6357,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>29</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -6398,13 +6398,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>23</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -6439,13 +6439,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>22</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -6480,13 +6480,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>18</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -6521,13 +6521,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B86" s="12">
         <v>26</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -6562,13 +6562,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>22</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -6603,13 +6603,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>29</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -6644,16 +6644,16 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E89" s="5">
         <v>10</v>
@@ -6685,13 +6685,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>25</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
@@ -6726,16 +6726,16 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>26</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E91" s="5">
         <v>9</v>
@@ -6767,13 +6767,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>23</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -6808,13 +6808,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>24</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -6849,13 +6849,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>30</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
@@ -6873,16 +6873,16 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>20</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -6914,13 +6914,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>22</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -6955,13 +6955,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>20</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -6996,13 +6996,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>25</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -7037,16 +7037,16 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>22</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E99" s="5">
         <v>9</v>
@@ -7078,13 +7078,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>19</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -7119,13 +7119,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>21</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
@@ -7160,16 +7160,16 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>20</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E102" s="5">
         <v>7</v>
@@ -7201,13 +7201,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>20</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -7242,13 +7242,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>21</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -7283,13 +7283,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>21</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -7324,13 +7324,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>19</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -7365,13 +7365,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2">
         <v>28</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -7406,16 +7406,16 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2">
         <v>21</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E108" s="5">
         <v>9</v>
@@ -7447,16 +7447,16 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2">
         <v>24</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E109" s="5">
         <v>9</v>
@@ -7488,16 +7488,16 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2">
         <v>26</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E110" s="5">
         <v>7</v>
@@ -7529,16 +7529,16 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2">
         <v>30</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E111" s="5">
         <v>9</v>
@@ -7570,13 +7570,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2">
         <v>29</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -7611,13 +7611,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2">
         <v>30</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -7652,16 +7652,16 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2">
         <v>22</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E114" s="5">
         <v>9</v>
@@ -7693,13 +7693,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2">
         <v>35</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -7734,16 +7734,16 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2">
         <v>29</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E116" s="5">
         <v>9</v>
@@ -7775,16 +7775,16 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2">
         <v>29</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E117" s="5">
         <v>6</v>
@@ -7816,16 +7816,16 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2">
         <v>30</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E118" s="5">
         <v>6</v>
@@ -7857,13 +7857,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2">
         <v>25</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -7898,13 +7898,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2">
         <v>24</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -7939,16 +7939,16 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B121" s="2">
         <v>24</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E121" s="5">
         <v>9</v>
@@ -7980,13 +7980,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2">
         <v>27</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -8021,13 +8021,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B123" s="2">
         <v>25</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -8062,16 +8062,16 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2">
         <v>25</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E124" s="5">
         <v>10</v>
@@ -8103,13 +8103,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2">
         <v>27</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -8144,16 +8144,16 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2">
         <v>20</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E126" s="5">
         <v>9</v>
@@ -8185,16 +8185,16 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B127" s="2">
         <v>23</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E127" s="5">
         <v>9</v>
@@ -8226,16 +8226,16 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2">
         <v>30</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E128" s="5">
         <v>7</v>
@@ -8267,13 +8267,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2">
         <v>21</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -8308,13 +8308,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2">
         <v>23</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
@@ -8349,16 +8349,16 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2">
         <v>24</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E131" s="5">
         <v>6</v>
@@ -8390,13 +8390,13 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B132" s="2">
         <v>25</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
@@ -8431,16 +8431,16 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2">
         <v>23</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E133" s="5">
         <v>10</v>
@@ -8472,13 +8472,13 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B134" s="2">
         <v>20</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
@@ -8513,13 +8513,13 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B135" s="2">
         <v>20</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
@@ -8554,16 +8554,16 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B136" s="2">
         <v>21</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E136" s="5">
         <v>5</v>
@@ -8595,16 +8595,16 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B137" s="2">
         <v>19</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E137" s="5">
         <v>9</v>
@@ -8636,13 +8636,13 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2">
         <v>24</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D138" s="1">
         <v>0</v>
@@ -8677,16 +8677,16 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B139" s="2">
         <v>22</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E139" s="5">
         <v>9</v>
@@ -8718,16 +8718,16 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2">
         <v>21</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E140" s="5">
         <v>10</v>
@@ -8759,13 +8759,13 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2">
         <v>20</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
@@ -8800,13 +8800,13 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B142" s="2">
         <v>25</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D142" s="1">
         <v>0</v>
@@ -8841,13 +8841,13 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B143" s="2">
         <v>20</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D143" s="1">
         <v>0</v>
@@ -8882,16 +8882,16 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2">
         <v>23</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E144" s="5">
         <v>9</v>
@@ -8923,13 +8923,13 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B145" s="2">
         <v>21</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D145" s="1">
         <v>0</v>
@@ -8964,13 +8964,13 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B146" s="2">
         <v>31</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D146" s="1">
         <v>0</v>
@@ -9005,13 +9005,13 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B147" s="2">
         <v>19</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D147" s="1">
         <v>0</v>
@@ -9046,16 +9046,16 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B148" s="2">
         <v>22</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E148" s="5">
         <v>9</v>
@@ -9087,13 +9087,13 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B149" s="2">
         <v>27</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D149" s="1">
         <v>0</v>
@@ -9128,13 +9128,13 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B150" s="2">
         <v>29</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
@@ -9169,16 +9169,16 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B151" s="2">
         <v>20</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E151" s="5">
         <v>8</v>
@@ -9210,16 +9210,16 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B152" s="2">
         <v>21</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E152" s="5">
         <v>9</v>
@@ -9251,16 +9251,16 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B153" s="2">
         <v>22</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E153" s="5">
         <v>9</v>
@@ -9292,16 +9292,16 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B154" s="2">
         <v>22</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E154" s="5">
         <v>7</v>
@@ -9333,16 +9333,16 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B155" s="2">
         <v>19</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E155" s="5">
         <v>7</v>
@@ -9374,13 +9374,13 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B156" s="2">
         <v>21</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D156" s="1">
         <v>0</v>
@@ -9415,13 +9415,13 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B157" s="2">
         <v>21</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D157" s="1">
         <v>0</v>
@@ -9456,13 +9456,13 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B158" s="2">
         <v>21</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D158" s="1">
         <v>0</v>
@@ -9493,13 +9493,13 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B159" s="2">
         <v>20</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D159" s="1">
         <v>0</v>
@@ -9534,13 +9534,13 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B160" s="2">
         <v>28</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D160" s="1">
         <v>0</v>
@@ -9575,13 +9575,13 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B161" s="2">
         <v>21</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -9612,13 +9612,13 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B162" s="2">
         <v>21</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -9653,13 +9653,13 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B163" s="2">
         <v>20</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D163" s="1">
         <v>0</v>
@@ -9694,13 +9694,13 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B164" s="2">
         <v>24</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -9735,13 +9735,13 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B165" s="2">
         <v>24</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D165" s="1">
         <v>0</v>
@@ -9776,13 +9776,13 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B166" s="2">
         <v>35</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D166" s="1">
         <v>0</v>
@@ -9817,13 +9817,13 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B167" s="2">
         <v>28</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D167" s="1">
         <v>0</v>
@@ -9858,13 +9858,13 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B168" s="2">
         <v>39</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -9899,13 +9899,13 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B169" s="2">
         <v>25</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -9940,13 +9940,13 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B170" s="2">
         <v>24</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D170" s="1">
         <v>0</v>
@@ -9981,13 +9981,13 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B171" s="2">
         <v>22</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D171" s="1">
         <v>0</v>
@@ -10022,13 +10022,13 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B172" s="2">
         <v>24</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D172" s="1">
         <v>0</v>
@@ -10063,13 +10063,13 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B173" s="2">
         <v>39</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -10102,13 +10102,13 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B174" s="2">
         <v>22</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -10143,13 +10143,13 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B175" s="2">
         <v>20</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
@@ -10184,13 +10184,13 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B176" s="2">
         <v>22</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D176" s="1">
         <v>0</v>
@@ -10221,13 +10221,13 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B177" s="2">
         <v>24</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -10262,13 +10262,13 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B178" s="2">
         <v>25</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
@@ -10303,13 +10303,13 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B179" s="2">
         <v>21</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -10344,13 +10344,13 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B180" s="2">
         <v>22</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D180" s="1">
         <v>0</v>
@@ -10385,13 +10385,13 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B181" s="2">
         <v>28</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D181" s="1">
         <v>0</v>
@@ -10426,13 +10426,13 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B182" s="2">
         <v>18</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D182" s="1">
         <v>0</v>
@@ -10467,13 +10467,13 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B183" s="2">
         <v>22</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D183" s="1">
         <v>0</v>
@@ -10508,16 +10508,16 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B184" s="2">
         <v>23</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E184" s="5">
         <v>8</v>
@@ -10549,16 +10549,16 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B185" s="2">
         <v>28</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E185" s="5">
         <v>10</v>
@@ -10590,13 +10590,13 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B186" s="2">
         <v>23</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -10631,13 +10631,13 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B187" s="2">
         <v>19</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D187" s="1">
         <v>0</v>
@@ -10672,13 +10672,13 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B188" s="2">
         <v>25</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D188" s="1">
         <v>0</v>
@@ -10713,13 +10713,13 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B189" s="2">
         <v>21</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -10754,13 +10754,13 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B190" s="2">
         <v>25</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D190" s="1">
         <v>0</v>
@@ -10795,13 +10795,13 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B191" s="2">
         <v>19</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D191" s="1">
         <v>0</v>
@@ -10836,13 +10836,13 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B192" s="2">
         <v>26</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -10877,13 +10877,13 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B193" s="2">
         <v>20</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D193" s="1">
         <v>0</v>
@@ -10918,13 +10918,13 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B194" s="2">
         <v>25</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D194" s="1">
         <v>0</v>
@@ -10959,16 +10959,16 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B195" s="2">
         <v>19</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E195" s="5">
         <v>8</v>
@@ -11000,13 +11000,13 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B196" s="2">
         <v>19</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D196" s="1">
         <v>0</v>
@@ -11041,13 +11041,13 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B197" s="2">
         <v>22</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -11082,13 +11082,13 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B198" s="2">
         <v>24</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D198" s="1">
         <v>0</v>
@@ -11123,13 +11123,13 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B199" s="2">
         <v>25</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D199" s="1">
         <v>0</v>
@@ -11164,13 +11164,13 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B200" s="2">
         <v>23</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -11205,13 +11205,13 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B201" s="2">
         <v>20</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -11246,13 +11246,13 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B202" s="2">
         <v>22</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D202" s="1">
         <v>0</v>
@@ -11287,13 +11287,13 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B203" s="2">
         <v>18</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D203" s="1">
         <v>0</v>
@@ -11328,13 +11328,13 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B204" s="2">
         <v>21</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D204" s="1">
         <v>0</v>
@@ -11369,13 +11369,13 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B205" s="2">
         <v>20</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D205" s="1">
         <v>0</v>
@@ -11410,13 +11410,13 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B206" s="2">
         <v>26</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -11451,13 +11451,13 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B207" s="2">
         <v>22</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -11492,13 +11492,13 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B208" s="2">
         <v>19</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D208" s="1">
         <v>0</v>
@@ -11533,13 +11533,13 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B209" s="2">
         <v>20</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D209" s="1">
         <v>0</v>
@@ -11574,13 +11574,13 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B210" s="2">
         <v>20</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D210" s="1">
         <v>0</v>
@@ -11615,13 +11615,13 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B211" s="2">
         <v>21</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -11656,13 +11656,13 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B212" s="2">
         <v>20</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D212" s="1">
         <v>0</v>
@@ -11697,13 +11697,13 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B213" s="2">
         <v>20</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D213" s="1">
         <v>0</v>
@@ -11738,13 +11738,13 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B214" s="2">
         <v>19</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -11779,13 +11779,13 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B215" s="2">
         <v>26</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D215" s="1">
         <v>0</v>
@@ -11820,13 +11820,13 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B216" s="2">
         <v>20</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D216" s="1">
         <v>0</v>
@@ -11861,16 +11861,16 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B217" s="2">
         <v>29</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E217" s="19">
         <v>8</v>
@@ -11902,13 +11902,13 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B218" s="2">
         <v>21</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D218" s="1">
         <v>0</v>
@@ -11943,13 +11943,13 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B219" s="2">
         <v>29</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D219" s="1">
         <v>0</v>
@@ -11984,13 +11984,13 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B220" s="2">
         <v>21</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -12025,13 +12025,13 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B221" s="2">
         <v>24</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D221" s="1">
         <v>0</v>
@@ -12066,13 +12066,13 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B222" s="2">
         <v>24</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D222" s="1">
         <v>0</v>
@@ -12107,13 +12107,13 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B223" s="2">
         <v>26</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D223" s="1">
         <v>0</v>
@@ -12148,16 +12148,16 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B224" s="2">
         <v>24</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E224" s="19">
         <v>8</v>
@@ -12189,13 +12189,13 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B225" s="2">
         <v>24</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D225" s="1">
         <v>0</v>
@@ -12230,13 +12230,13 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B226" s="2">
         <v>29</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D226" s="1">
         <v>0</v>
@@ -12271,16 +12271,16 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B227" s="2">
         <v>23</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E227" s="19">
         <v>9</v>
@@ -12312,13 +12312,13 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B228" s="2">
         <v>27</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D228" s="1">
         <v>0</v>
@@ -12353,13 +12353,13 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B229" s="2">
         <v>30</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D229" s="1">
         <v>0</v>
@@ -12394,16 +12394,16 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B230" s="2">
         <v>27</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E230" s="19">
         <v>8</v>
@@ -12435,16 +12435,16 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B231" s="2">
         <v>30</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E231" s="19">
         <v>3</v>
@@ -12476,13 +12476,13 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B232" s="2">
         <v>27</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D232" s="1">
         <v>0</v>
@@ -12517,16 +12517,16 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B233" s="2">
         <v>25</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E233" s="19">
         <v>8</v>
@@ -12558,16 +12558,16 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B234" s="2">
         <v>25</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E234" s="19">
         <v>8</v>
@@ -12599,16 +12599,16 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B235" s="2">
         <v>29</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E235" s="19">
         <v>10</v>
@@ -12640,13 +12640,13 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B236" s="2">
         <v>21</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D236" s="1">
         <v>0</v>
@@ -12681,16 +12681,16 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B237" s="2">
         <v>25</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E237" s="19">
         <v>6</v>
@@ -12722,13 +12722,13 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B238" s="2">
         <v>21</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -12763,16 +12763,16 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B239" s="2">
         <v>30</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E239" s="19">
         <v>11</v>
@@ -12804,13 +12804,13 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B240" s="2">
         <v>22</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D240" s="1">
         <v>0</v>
@@ -12845,16 +12845,16 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B241" s="2">
         <v>36</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E241" s="19">
         <v>10</v>
@@ -12886,16 +12886,16 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B242" s="2">
         <v>21</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E242" s="19">
         <v>8</v>
@@ -12927,13 +12927,13 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B243" s="2">
         <v>21</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D243" s="1">
         <v>0</v>
@@ -12968,13 +12968,13 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B244" s="2">
         <v>20</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D244" s="1">
         <v>0</v>
@@ -13009,16 +13009,16 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B245" s="2">
         <v>21</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E245" s="19">
         <v>10</v>
@@ -13050,13 +13050,13 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B246" s="2">
         <v>28</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D246" s="1">
         <v>0</v>
@@ -13091,16 +13091,16 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B247" s="2">
         <v>22</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E247" s="19">
         <v>10</v>
@@ -13132,16 +13132,16 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B248" s="2">
         <v>20</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E248" s="19">
         <v>8</v>
@@ -13173,13 +13173,13 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B249" s="2">
         <v>23</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -13214,13 +13214,13 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B250" s="2">
         <v>26</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D250" s="1">
         <v>0</v>
@@ -13255,13 +13255,13 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B251" s="12">
         <v>28</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D251" s="1">
         <v>0</v>
@@ -13296,13 +13296,13 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B252" s="12">
         <v>28</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D252" s="1">
         <v>0</v>
@@ -13337,13 +13337,13 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B253" s="12">
         <v>23</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D253" s="1">
         <v>0</v>
@@ -13378,16 +13378,16 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B254" s="12">
         <v>24</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E254" s="5">
         <v>6</v>
@@ -13419,13 +13419,13 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B255" s="12">
         <v>23</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D255" s="13">
         <v>0</v>
@@ -13460,13 +13460,13 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B256" s="12">
         <v>23</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D256" s="13">
         <v>0</v>
@@ -13501,16 +13501,16 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B257" s="12">
         <v>26</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D257" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E257" s="5">
         <v>7</v>
@@ -13542,13 +13542,13 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B258" s="12">
         <v>27</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D258" s="13">
         <v>0</v>
@@ -13583,16 +13583,16 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B259" s="12">
         <v>22</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D259" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E259" s="5">
         <v>8</v>
@@ -13624,13 +13624,13 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B260" s="12">
         <v>24</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D260" s="13">
         <v>0</v>
@@ -13665,13 +13665,13 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B261" s="12">
         <v>26</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D261" s="13">
         <v>0</v>
@@ -13706,13 +13706,13 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B262" s="12">
         <v>25</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D262" s="13">
         <v>0</v>
@@ -13747,16 +13747,16 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B263" s="12">
         <v>24</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D263" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E263" s="5">
         <v>9</v>
@@ -13788,16 +13788,16 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B264" s="12">
         <v>18</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D264" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E264" s="5">
         <v>6</v>
@@ -13829,16 +13829,16 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B265" s="12">
         <v>29</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E265" s="5">
         <v>9</v>
@@ -13870,13 +13870,13 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B266" s="12">
         <v>25</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D266" s="13">
         <v>0</v>
@@ -13911,13 +13911,13 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B267" s="12">
         <v>25</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D267" s="13">
         <v>0</v>
@@ -13952,13 +13952,13 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B268" s="12">
         <v>27</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D268" s="13">
         <v>0</v>
@@ -13993,16 +13993,16 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B269" s="12">
         <v>24</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D269" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E269" s="5">
         <v>7</v>
@@ -14034,13 +14034,13 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B270" s="12">
         <v>23</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D270" s="13">
         <v>0</v>
@@ -14075,13 +14075,13 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B271" s="12">
         <v>24</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D271" s="13">
         <v>0</v>
@@ -14116,16 +14116,16 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B272" s="12">
         <v>20</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D272" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E272" s="5">
         <v>10</v>
@@ -14157,13 +14157,13 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B273" s="12">
         <v>23</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D273" s="13">
         <v>0</v>
@@ -14198,13 +14198,13 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B274" s="12">
         <v>25</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D274" s="13">
         <v>0</v>
@@ -14239,13 +14239,13 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B275" s="12">
         <v>24</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D275" s="13">
         <v>0</v>
@@ -14280,13 +14280,13 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B276" s="12">
         <v>25</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D276" s="13">
         <v>0</v>
@@ -14321,13 +14321,13 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B277" s="12">
         <v>19</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D277" s="13">
         <v>0</v>
@@ -14362,13 +14362,13 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B278" s="12">
         <v>24</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D278" s="13">
         <v>0</v>
@@ -14403,13 +14403,13 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B279" s="12">
         <v>24</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D279" s="13">
         <v>0</v>
@@ -14444,13 +14444,13 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B280" s="12">
         <v>22</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D280" s="13">
         <v>0</v>
@@ -14485,13 +14485,13 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B281" s="12">
         <v>24</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D281" s="13">
         <v>0</v>
@@ -14526,13 +14526,13 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B282" s="12">
         <v>26</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D282" s="13">
         <v>0</v>
@@ -14567,13 +14567,13 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B283" s="12">
         <v>25</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D283" s="13">
         <v>0</v>
@@ -14608,13 +14608,13 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B284" s="12">
         <v>22</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D284" s="13">
         <v>0</v>
@@ -14649,16 +14649,16 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B285" s="12">
         <v>25</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D285" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E285" s="5">
         <v>3</v>
@@ -14688,13 +14688,13 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B286" s="12">
         <v>23</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D286" s="13">
         <v>0</v>
@@ -14729,16 +14729,16 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B287" s="12">
         <v>25</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D287" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E287" s="5">
         <v>6</v>
@@ -14770,13 +14770,13 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B288" s="12">
         <v>25</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D288" s="13">
         <v>0</v>
@@ -14811,13 +14811,13 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B289" s="12">
         <v>25</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D289" s="13">
         <v>0</v>
@@ -14852,13 +14852,13 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B290" s="12">
         <v>24</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D290" s="13">
         <v>0</v>
@@ -14893,13 +14893,13 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B291" s="12">
         <v>23</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D291" s="13">
         <v>0</v>
@@ -14934,13 +14934,13 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B292" s="12">
         <v>21</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D292" s="13">
         <v>0</v>
@@ -14975,13 +14975,13 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B293" s="12">
         <v>26</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D293" s="13">
         <v>0</v>
@@ -15016,13 +15016,13 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B294" s="12">
         <v>21</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D294" s="13">
         <v>0</v>
@@ -15057,13 +15057,13 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B295" s="12">
         <v>25</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D295" s="13">
         <v>0</v>
@@ -15098,13 +15098,13 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B296" s="2">
         <v>24</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D296" s="13">
         <v>0</v>
@@ -15139,13 +15139,13 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B297" s="2">
         <v>20</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D297" s="13">
         <v>0</v>
@@ -15180,13 +15180,13 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B298" s="2">
         <v>24</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D298" s="13">
         <v>0</v>
@@ -15221,16 +15221,16 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B299" s="2">
         <v>20</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E299" s="5">
         <v>5</v>
@@ -15262,13 +15262,13 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B300" s="2">
         <v>19</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -15303,13 +15303,13 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B301" s="2">
         <v>21</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -15344,13 +15344,13 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B302" s="2">
         <v>20</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -15385,13 +15385,13 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B303" s="2">
         <v>20</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -15426,16 +15426,16 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B304" s="2">
         <v>25</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E304" s="5">
         <v>7</v>
@@ -15467,13 +15467,13 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B305" s="2">
         <v>22</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -15508,13 +15508,13 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B306" s="2">
         <v>19</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D306" s="1">
         <v>0</v>
@@ -15549,13 +15549,13 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B307" s="2">
         <v>23</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -15590,16 +15590,16 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B308" s="2">
         <v>26</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E308" s="5">
         <v>6</v>
@@ -15631,13 +15631,13 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B309" s="2">
         <v>24</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D309" s="1">
         <v>0</v>
@@ -15672,13 +15672,13 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B310" s="2">
         <v>21</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D310" s="1">
         <v>0</v>
@@ -15713,16 +15713,16 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B311" s="2">
         <v>19</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E311" s="5">
         <v>6</v>
@@ -15754,13 +15754,13 @@
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B312" s="2">
         <v>22</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D312" s="1">
         <v>0</v>
@@ -15795,13 +15795,13 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B313" s="2">
         <v>22</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D313" s="1">
         <v>0</v>
@@ -15836,16 +15836,16 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B314" s="2">
         <v>19</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E314" s="5">
         <v>5</v>
@@ -15877,13 +15877,13 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B315" s="2">
         <v>23</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -15918,13 +15918,13 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B316" s="2">
         <v>23</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D316" s="1">
         <v>0</v>
@@ -15959,13 +15959,13 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B317" s="2">
         <v>27</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D317" s="1">
         <v>0</v>
@@ -16000,16 +16000,16 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B318" s="2">
         <v>20</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E318" s="5">
         <v>6</v>
@@ -16041,13 +16041,13 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B319" s="2">
         <v>21</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D319" s="1">
         <v>0</v>
@@ -16082,13 +16082,13 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B320" s="2">
         <v>23</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -16123,13 +16123,13 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B321" s="2">
         <v>22</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -16164,13 +16164,13 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B322" s="2">
         <v>28</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -16205,13 +16205,13 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B323" s="2">
         <v>25</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -16246,13 +16246,13 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B324" s="2">
         <v>28</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -16287,13 +16287,13 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B325" s="2">
         <v>30</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D325" s="1">
         <v>0</v>
@@ -16328,13 +16328,13 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B326" s="2">
         <v>24</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D326" s="1">
         <v>0</v>
@@ -16369,13 +16369,13 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B327" s="2">
         <v>22</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D327" s="1">
         <v>0</v>
@@ -16410,13 +16410,13 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B328" s="2">
         <v>23</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D328" s="1">
         <v>0</v>
@@ -16451,13 +16451,13 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B329" s="2">
         <v>23</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D329" s="1">
         <v>0</v>
@@ -16492,13 +16492,13 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B330" s="2">
         <v>22</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D330" s="1">
         <v>0</v>
@@ -16533,16 +16533,16 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B331" s="2">
         <v>22</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E331" s="5">
         <v>6</v>
@@ -16574,13 +16574,13 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B332" s="2">
         <v>21</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D332" s="1">
         <v>0</v>
@@ -16615,13 +16615,13 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B333" s="2">
         <v>25</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D333" s="1">
         <v>0</v>
@@ -16656,13 +16656,13 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B334" s="2">
         <v>25</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D334" s="1">
         <v>0</v>
@@ -16697,16 +16697,16 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B335" s="2">
         <v>22</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E335" s="5">
         <v>6</v>
@@ -16738,13 +16738,13 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B336" s="2">
         <v>23</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D336" s="1">
         <v>0</v>
@@ -16779,13 +16779,13 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B337" s="2">
         <v>24</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D337" s="1">
         <v>0</v>
@@ -16820,16 +16820,16 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B338" s="2">
         <v>27</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E338" s="5">
         <v>6</v>
@@ -16861,13 +16861,13 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B339" s="2">
         <v>23</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D339" s="1">
         <v>0</v>
@@ -16902,13 +16902,13 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B340" s="2">
         <v>25</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D340" s="1">
         <v>0</v>
@@ -16943,13 +16943,13 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B341" s="2">
         <v>23</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D341" s="1">
         <v>0</v>
@@ -16984,13 +16984,13 @@
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B342" s="2">
         <v>23</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D342" s="1">
         <v>0</v>
@@ -17025,13 +17025,13 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B343" s="2">
         <v>21</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D343" s="1">
         <v>0</v>
@@ -17066,13 +17066,13 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B344" s="2">
         <v>20</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D344" s="1">
         <v>0</v>
@@ -17107,13 +17107,13 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B345" s="2">
         <v>23</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D345" s="1">
         <v>0</v>
@@ -17148,16 +17148,16 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B346" s="2">
         <v>23</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E346" s="5">
         <v>6</v>
@@ -17189,13 +17189,13 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B347" s="2">
         <v>19</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D347" s="1">
         <v>0</v>
@@ -17230,13 +17230,13 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B348" s="2">
         <v>30</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D348" s="1">
         <v>0</v>
@@ -17271,13 +17271,13 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B349" s="2">
         <v>23</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D349" s="1">
         <v>1</v>
@@ -17312,13 +17312,13 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B350" s="2">
         <v>24</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D350" s="1">
         <v>1</v>
@@ -17353,13 +17353,13 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B351" s="2">
         <v>29</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D351" s="1">
         <v>1</v>
@@ -17394,13 +17394,13 @@
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B352" s="2">
         <v>26</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D352" s="1">
         <v>1</v>
@@ -17435,13 +17435,13 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B353" s="2">
         <v>26</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D353" s="1">
         <v>1</v>
@@ -17476,13 +17476,13 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B354" s="2">
         <v>26</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D354" s="1">
         <v>1</v>
@@ -17517,13 +17517,13 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B355" s="2">
         <v>27</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D355" s="1">
         <v>0</v>
@@ -17558,13 +17558,13 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B356" s="2">
         <v>28</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D356" s="1">
         <v>0</v>
@@ -17599,13 +17599,13 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B357" s="2">
         <v>25</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D357" s="1">
         <v>0</v>
@@ -17640,13 +17640,13 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B358" s="2">
         <v>24</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D358" s="1">
         <v>0</v>
@@ -17681,13 +17681,13 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B359" s="2">
         <v>21</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D359" s="1">
         <v>0</v>
@@ -17722,13 +17722,13 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B360" s="2">
         <v>21</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D360" s="1">
         <v>0</v>
@@ -17763,13 +17763,13 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B361" s="2">
         <v>25</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D361" s="1">
         <v>0</v>
@@ -17804,13 +17804,13 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B362" s="2">
         <v>26</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D362" s="1">
         <v>0</v>
@@ -17845,13 +17845,13 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B363" s="2">
         <v>28</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D363" s="1">
         <v>0</v>
@@ -17886,13 +17886,13 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B364" s="2">
         <v>28</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D364" s="1">
         <v>0</v>
@@ -17927,13 +17927,13 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B365" s="2">
         <v>24</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D365" s="1">
         <v>0</v>
@@ -17968,13 +17968,13 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B366" s="2">
         <v>30</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D366" s="1">
         <v>0</v>
@@ -18009,13 +18009,13 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B367" s="2">
         <v>21</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D367" s="1">
         <v>0</v>
@@ -18050,13 +18050,13 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B368" s="2">
         <v>30</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D368" s="1">
         <v>0</v>
@@ -18091,13 +18091,13 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B369" s="2">
         <v>25</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D369" s="1">
         <v>0</v>
@@ -18132,13 +18132,13 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B370" s="2">
         <v>25</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D370" s="1">
         <v>0</v>
@@ -18173,13 +18173,13 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B371" s="2">
         <v>25</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D371" s="1">
         <v>0</v>
@@ -18214,13 +18214,13 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B372" s="2">
         <v>24</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D372" s="1">
         <v>1</v>
@@ -18255,13 +18255,13 @@
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B373" s="2">
         <v>25</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D373" s="1">
         <v>0</v>
@@ -18296,13 +18296,13 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B374" s="2">
         <v>28</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D374" s="1">
         <v>0</v>
@@ -18337,13 +18337,13 @@
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B375" s="2">
         <v>25</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D375" s="1">
         <v>0</v>
@@ -18378,13 +18378,13 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B376" s="2">
         <v>22</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D376" s="1">
         <v>0</v>
@@ -18419,13 +18419,13 @@
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B377" s="2">
         <v>29</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D377" s="1">
         <v>0</v>
@@ -18460,13 +18460,13 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B378" s="2">
         <v>25</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D378" s="1">
         <v>0</v>
@@ -18501,13 +18501,13 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B379" s="2">
         <v>29</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D379" s="1">
         <v>0</v>
@@ -18542,13 +18542,13 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B380" s="2">
         <v>29</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D380" s="1">
         <v>0</v>
@@ -18583,13 +18583,13 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B381" s="2">
         <v>30</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D381" s="1">
         <v>0</v>
@@ -18624,13 +18624,13 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B382" s="2">
         <v>26</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D382" s="1">
         <v>0</v>
@@ -18665,13 +18665,13 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B383" s="2">
         <v>23</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D383" s="1">
         <v>0</v>
@@ -18706,13 +18706,13 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B384" s="2">
         <v>25</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D384" s="1">
         <v>0</v>
@@ -18747,13 +18747,13 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B385" s="2">
         <v>29</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D385" s="1">
         <v>0</v>
@@ -18788,13 +18788,13 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B386" s="2">
         <v>30</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D386" s="1">
         <v>1</v>
@@ -18829,13 +18829,13 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B387" s="2">
         <v>23</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D387" s="1">
         <v>0</v>
@@ -18870,13 +18870,13 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B388" s="2">
         <v>29</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D388" s="1">
         <v>0</v>
@@ -18911,13 +18911,13 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B389" s="2">
         <v>20</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D389" s="1">
         <v>0</v>
@@ -18952,16 +18952,16 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B390" s="2">
         <v>21</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E390" s="5">
         <v>6</v>
@@ -18993,13 +18993,13 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B391" s="2">
         <v>23</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D391" s="1">
         <v>0</v>
@@ -19034,13 +19034,13 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B392" s="2">
         <v>20</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D392" s="1">
         <v>0</v>
@@ -19075,16 +19075,16 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B393" s="2">
         <v>21</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E393" s="5">
         <v>10</v>
@@ -19116,13 +19116,13 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B394" s="2">
         <v>21</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D394" s="1">
         <v>0</v>
@@ -19157,13 +19157,13 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B395" s="2">
         <v>21</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D395" s="1">
         <v>0</v>
@@ -19198,13 +19198,13 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B396" s="2">
         <v>20</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D396" s="1">
         <v>0</v>
@@ -19239,16 +19239,16 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B397" s="2">
         <v>20</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E397" s="5">
         <v>7</v>
@@ -19280,16 +19280,16 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B398" s="2">
         <v>26</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E398" s="5">
         <v>7</v>
@@ -19321,13 +19321,13 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B399" s="1">
         <v>21</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D399" s="1">
         <v>0</v>
@@ -19356,13 +19356,13 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B400" s="1">
         <v>22</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D400" s="1">
         <v>0</v>
@@ -19397,16 +19397,16 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B401" s="1">
         <v>24</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E401" s="5">
         <v>10</v>
@@ -19438,16 +19438,16 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B402" s="1">
         <v>22</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E402" s="5">
         <v>3</v>
@@ -19479,13 +19479,13 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B403" s="1">
         <v>39</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D403" s="1">
         <v>0</v>
@@ -19514,16 +19514,16 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B404" s="1">
         <v>24</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E404" s="5">
         <v>8</v>
@@ -19555,13 +19555,13 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B405" s="1">
         <v>34</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D405" s="1">
         <v>0</v>
@@ -19590,16 +19590,16 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B406" s="1">
         <v>34</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E406" s="5">
         <v>7</v>
@@ -19631,13 +19631,13 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B407" s="1">
         <v>29</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D407" s="1">
         <v>0</v>
@@ -19672,16 +19672,16 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B408" s="1">
         <v>18</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E408" s="5">
         <v>7</v>
@@ -19713,13 +19713,13 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B409" s="1">
         <v>18</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D409" s="1">
         <v>0</v>
@@ -19748,16 +19748,16 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B410" s="1">
         <v>45</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E410" s="5">
         <v>16</v>
@@ -19789,13 +19789,13 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B411" s="1">
         <v>22</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D411" s="1">
         <v>0</v>
@@ -19830,16 +19830,16 @@
     </row>
     <row r="412" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B412" s="1">
         <v>22</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E412" s="5">
         <v>6</v>
@@ -19871,16 +19871,16 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B413" s="1">
         <v>23</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E413" s="5">
         <v>11</v>
@@ -19912,16 +19912,16 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B414" s="1">
         <v>22</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E414" s="5">
         <v>5</v>
@@ -19953,13 +19953,13 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B415" s="1">
         <v>22</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415" s="5">
@@ -19988,16 +19988,16 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B416" s="1">
         <v>27</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E416" s="5">
         <v>7</v>
@@ -20025,16 +20025,16 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B417" s="1">
         <v>23</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E417" s="5">
         <v>5</v>
@@ -20060,16 +20060,16 @@
     </row>
     <row r="418" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B418" s="1">
         <v>24</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E418" s="5">
         <v>10</v>
@@ -20095,13 +20095,13 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B419" s="1">
         <v>33</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D419" s="1">
         <v>0</v>
@@ -20136,13 +20136,13 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B420" s="1">
         <v>23</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D420" s="1">
         <v>0</v>
@@ -20177,16 +20177,16 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B421" s="1">
         <v>22</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E421" s="5">
         <v>6</v>
@@ -20212,16 +20212,16 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B422" s="1">
         <v>21</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E422" s="5">
         <v>3</v>
@@ -20253,13 +20253,13 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B423" s="1">
         <v>21</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D423" s="1">
         <v>0</v>
@@ -20294,13 +20294,13 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B424" s="1">
         <v>30</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D424" s="1">
         <v>0</v>
@@ -20335,13 +20335,13 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B425" s="1">
         <v>29</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D425" s="1">
         <v>0</v>
@@ -20376,13 +20376,13 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B426" s="1">
         <v>27</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D426" s="1">
         <v>0</v>
@@ -20417,13 +20417,13 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B427" s="1">
         <v>28</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D427" s="1">
         <v>0</v>
@@ -20455,13 +20455,13 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B428" s="1">
         <v>29</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D428" s="1">
         <v>0</v>
@@ -20496,16 +20496,16 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B429" s="1">
         <v>18</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E429" s="5">
         <v>9</v>
@@ -20537,16 +20537,16 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B430" s="2">
         <v>26</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E430" s="5">
         <v>6</v>
@@ -20578,13 +20578,13 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B431" s="2">
         <v>30</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D431" s="1">
         <v>0</v>
@@ -20619,13 +20619,13 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B432" s="2">
         <v>26</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D432" s="1">
         <v>0</v>
@@ -20660,13 +20660,13 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B433" s="2">
         <v>20</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D433" s="1">
         <v>0</v>
@@ -20701,13 +20701,13 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B434" s="2">
         <v>23</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D434" s="1">
         <v>0</v>
@@ -20742,13 +20742,13 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B435" s="2">
         <v>20</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D435" s="1">
         <v>0</v>
@@ -20783,16 +20783,16 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B436" s="2">
         <v>21</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E436" s="5">
         <v>13</v>
@@ -20824,13 +20824,13 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B437" s="2">
         <v>18</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D437" s="1">
         <v>0</v>
@@ -20865,13 +20865,13 @@
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B438" s="2">
         <v>26</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D438" s="1">
         <v>0</v>
@@ -20906,13 +20906,13 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B439" s="2">
         <v>19</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D439" s="1">
         <v>0</v>
@@ -20947,16 +20947,16 @@
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B440" s="2">
         <v>27</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E440" s="5">
         <v>4</v>
@@ -20988,13 +20988,13 @@
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B441" s="2">
         <v>19</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D441" s="1">
         <v>0</v>
@@ -21029,13 +21029,13 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B442" s="2">
         <v>27</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D442" s="1">
         <v>0</v>
@@ -21070,13 +21070,13 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B443" s="2">
         <v>20</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D443" s="1">
         <v>0</v>
@@ -21111,13 +21111,13 @@
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B444" s="2">
         <v>19</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D444" s="1">
         <v>0</v>
@@ -21152,13 +21152,13 @@
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B445" s="2">
         <v>18</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D445" s="1">
         <v>0</v>
@@ -21193,13 +21193,13 @@
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B446" s="2">
         <v>18</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D446" s="1">
         <v>0</v>
@@ -21234,13 +21234,13 @@
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B447" s="2">
         <v>24</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D447" s="1">
         <v>0</v>
@@ -21275,16 +21275,16 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B448" s="2">
         <v>27</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E448" s="5">
         <v>6</v>
@@ -21316,16 +21316,16 @@
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B449" s="2">
         <v>25</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E449" s="5">
         <v>4</v>
@@ -21357,13 +21357,13 @@
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B450" s="2">
         <v>19</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D450" s="1">
         <v>0</v>
@@ -21398,16 +21398,16 @@
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B451" s="2">
         <v>20</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E451" s="5">
         <v>5</v>
@@ -21439,13 +21439,13 @@
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B452" s="2">
         <v>24</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D452" s="1">
         <v>0</v>
@@ -21480,16 +21480,16 @@
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B453" s="2">
         <v>20</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E453" s="5">
         <v>5</v>
@@ -21521,16 +21521,16 @@
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B454" s="2">
         <v>27</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E454" s="5">
         <v>3</v>
@@ -21562,13 +21562,13 @@
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B455" s="2">
         <v>30</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D455" s="1">
         <v>0</v>
@@ -21603,13 +21603,13 @@
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B456" s="2">
         <v>23</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D456" s="1">
         <v>0</v>
@@ -21644,16 +21644,16 @@
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B457" s="2">
         <v>30</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E457" s="5">
         <v>6</v>
@@ -21685,16 +21685,16 @@
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B458" s="2">
         <v>25</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E458" s="5">
         <v>5</v>
@@ -21726,16 +21726,16 @@
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B459" s="2">
         <v>30</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E459" s="5">
         <v>12</v>
@@ -21767,13 +21767,13 @@
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B460" s="2">
         <v>30</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D460" s="1">
         <v>0</v>
@@ -21808,16 +21808,16 @@
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B461" s="2">
         <v>19</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E461" s="5">
         <v>5</v>
@@ -21849,13 +21849,13 @@
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B462" s="2">
         <v>24</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D462" s="1">
         <v>0</v>
@@ -21890,16 +21890,16 @@
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B463" s="2">
         <v>19</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E463" s="5">
         <v>11</v>
@@ -21931,16 +21931,16 @@
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B464" s="2">
         <v>29</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E464" s="5">
         <v>3</v>
@@ -21972,16 +21972,16 @@
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B465" s="2">
         <v>23</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E465" s="5">
         <v>3</v>
@@ -22013,16 +22013,16 @@
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B466" s="2">
         <v>30</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E466" s="5">
         <v>9</v>
@@ -22054,16 +22054,16 @@
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B467" s="2">
         <v>29</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E467" s="5">
         <v>6</v>
@@ -22095,13 +22095,13 @@
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B468" s="2">
         <v>21</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D468" s="1">
         <v>0</v>
@@ -22136,16 +22136,16 @@
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B469" s="2">
         <v>23</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E469" s="5">
         <v>7</v>
@@ -22177,13 +22177,13 @@
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B470" s="2">
         <v>19</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D470" s="1">
         <v>0</v>
@@ -22218,16 +22218,16 @@
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B471" s="2">
         <v>26</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E471" s="5">
         <v>10</v>
@@ -22259,13 +22259,13 @@
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B472" s="2">
         <v>22</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D472" s="1">
         <v>0</v>
@@ -22300,13 +22300,13 @@
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B473" s="2">
         <v>23</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D473" s="1">
         <v>0</v>
@@ -22341,13 +22341,13 @@
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B474" s="2">
         <v>22</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D474" s="1">
         <v>0</v>
@@ -22382,13 +22382,13 @@
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B475" s="2">
         <v>27</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D475" s="1">
         <v>0</v>
@@ -22423,16 +22423,16 @@
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B476" s="2">
         <v>29</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E476" s="5">
         <v>9</v>
@@ -22464,13 +22464,13 @@
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B477" s="14">
         <v>26</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D477" s="15">
         <v>0</v>
@@ -22505,13 +22505,13 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B478" s="2">
         <v>23</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D478" s="15">
         <v>0</v>
@@ -22546,13 +22546,13 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B479" s="2">
         <v>23</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D479" s="15">
         <v>0</v>
@@ -22587,13 +22587,13 @@
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B480" s="2">
         <v>22</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D480" s="15">
         <v>0</v>
@@ -22628,13 +22628,13 @@
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B481" s="2">
         <v>22</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D481" s="15">
         <v>0</v>
@@ -22669,13 +22669,13 @@
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B482" s="2">
         <v>22</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D482" s="15">
         <v>0</v>
@@ -22710,13 +22710,13 @@
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B483" s="2">
         <v>25</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D483" s="15">
         <v>0</v>
@@ -22751,13 +22751,13 @@
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B484" s="2">
         <v>20</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D484" s="15">
         <v>0</v>
@@ -22792,13 +22792,13 @@
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B485" s="2">
         <v>25</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D485" s="15">
         <v>0</v>
@@ -22833,13 +22833,13 @@
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B486" s="2">
         <v>22</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D486" s="15">
         <v>0</v>
@@ -22874,13 +22874,13 @@
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B487" s="2">
         <v>22</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D487" s="15">
         <v>0</v>
@@ -22915,13 +22915,13 @@
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B488" s="2">
         <v>23</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D488" s="15">
         <v>0</v>
@@ -22956,13 +22956,13 @@
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B489" s="2">
         <v>25</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D489" s="15">
         <v>0</v>
@@ -22997,13 +22997,13 @@
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B490" s="2">
         <v>23</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D490" s="15">
         <v>0</v>
@@ -23038,13 +23038,13 @@
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B491" s="2">
         <v>27</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D491" s="15">
         <v>0</v>
@@ -23079,13 +23079,13 @@
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B492" s="2">
         <v>22</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D492" s="15">
         <v>0</v>
@@ -23120,16 +23120,16 @@
     </row>
     <row r="493" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B493" s="2">
         <v>20</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D493" s="15" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E493" s="20">
         <v>5</v>
@@ -23161,13 +23161,13 @@
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B494" s="2">
         <v>22</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D494" s="15">
         <v>0</v>
@@ -23202,13 +23202,13 @@
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B495" s="2">
         <v>24</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D495" s="15">
         <v>0</v>
@@ -23243,13 +23243,13 @@
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B496" s="2">
         <v>19</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D496" s="15">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="F496" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G496" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="H496" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I496" s="1">
         <v>228</v>
@@ -23278,13 +23278,13 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B497" s="2">
         <v>20</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D497" s="15">
         <v>0</v>
@@ -23313,22 +23313,22 @@
     </row>
     <row r="498" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B498" s="2">
         <v>21</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D498" s="15" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E498">
         <v>0</v>
       </c>
       <c r="F498" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G498">
         <v>6</v>
@@ -23348,13 +23348,13 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B499" s="2">
         <v>20</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D499" s="15">
         <v>0</v>
@@ -23383,16 +23383,16 @@
     </row>
     <row r="500" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B500" s="2">
         <v>19</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D500" s="15" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E500">
         <v>0</v>
@@ -23418,13 +23418,13 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B501" s="2">
         <v>22</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D501" s="15">
         <v>0</v>
@@ -23432,13 +23432,13 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B502" s="2">
         <v>19</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D502" s="15">
         <v>0</v>
@@ -23467,13 +23467,13 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B503" s="2">
         <v>20</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D503" s="15">
         <v>0</v>
@@ -23502,16 +23502,16 @@
     </row>
     <row r="504" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B504" s="2">
         <v>18</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D504" s="15" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E504">
         <v>4</v>
@@ -23537,13 +23537,13 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B505" s="2">
         <v>21</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D505" s="15">
         <v>0</v>
@@ -23572,16 +23572,16 @@
     </row>
     <row r="506" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B506" s="2">
         <v>28</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D506" s="15" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E506">
         <v>0</v>
@@ -23607,13 +23607,13 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B507" s="2">
         <v>28</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D507" s="15">
         <v>0</v>
@@ -23642,13 +23642,13 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B508" s="2">
         <v>25</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D508" s="15">
         <v>0</v>
@@ -23677,13 +23677,13 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B509" s="2">
         <v>19</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D509" s="15">
         <v>0</v>
@@ -23712,13 +23712,13 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B510" s="2">
         <v>22</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D510" s="15">
         <v>0</v>
@@ -23747,13 +23747,13 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B511" s="2">
         <v>21</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D511" s="15">
         <v>0</v>
@@ -23782,13 +23782,13 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B512" s="2">
         <v>20</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D512" s="15">
         <v>0</v>
@@ -23817,16 +23817,16 @@
     </row>
     <row r="513" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B513" s="2">
         <v>19</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D513" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E513">
         <v>1</v>
@@ -23852,16 +23852,16 @@
     </row>
     <row r="514" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B514" s="2">
         <v>19</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D514" s="15" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E514">
         <v>0</v>
@@ -23887,13 +23887,13 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B515" s="2">
         <v>22</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D515" s="15">
         <v>0</v>
@@ -23922,13 +23922,13 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B516" s="2">
         <v>21</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D516" s="15">
         <v>0</v>
@@ -23957,13 +23957,13 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B517" s="2">
         <v>18</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D517" s="15">
         <v>0</v>
@@ -23992,13 +23992,13 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B518" s="2">
         <v>19</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D518" s="15">
         <v>0</v>
@@ -24027,13 +24027,13 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B519" s="2">
         <v>19</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D519" s="15">
         <v>0</v>
@@ -24062,13 +24062,13 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B520" s="2">
         <v>21</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D520" s="15">
         <v>0</v>
@@ -24097,13 +24097,13 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B521" s="2">
         <v>21</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D521" s="15">
         <v>0</v>
@@ -24132,13 +24132,13 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B522" s="2">
         <v>25</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D522" s="15">
         <v>0</v>
@@ -24167,16 +24167,16 @@
     </row>
     <row r="523" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B523" s="2">
         <v>23</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D523" s="15" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E523">
         <v>1</v>
@@ -24202,13 +24202,13 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B524" s="2">
         <v>18</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D524" s="15">
         <v>0</v>
@@ -24237,13 +24237,13 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B525" s="2">
         <v>19</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D525" s="15">
         <v>0</v>
@@ -24272,13 +24272,13 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B526" s="2">
         <v>21</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D526" s="15">
         <v>0</v>
@@ -24304,13 +24304,13 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B527" s="2">
         <v>20</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D527" s="15">
         <v>0</v>
@@ -24339,13 +24339,13 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B528" s="2">
         <v>22</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D528" s="15">
         <v>0</v>
@@ -24374,13 +24374,13 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B529" s="2">
         <v>21</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D529" s="15">
         <v>0</v>
@@ -24409,13 +24409,13 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B530" s="2">
         <v>20</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D530" s="15">
         <v>0</v>
@@ -24444,13 +24444,13 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B531" s="2">
         <v>21</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D531" s="15">
         <v>0</v>
@@ -24479,16 +24479,16 @@
     </row>
     <row r="532" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B532" s="2">
         <v>22</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D532" s="15" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E532">
         <v>3.5</v>
@@ -24514,13 +24514,13 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B533" s="2">
         <v>20</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D533" s="15">
         <v>0</v>
@@ -24549,13 +24549,13 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B534" s="2">
         <v>19</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D534" s="15">
         <v>0</v>
@@ -24584,13 +24584,13 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B535" s="2">
         <v>19</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D535" s="15">
         <v>0</v>
@@ -24619,13 +24619,13 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B536" s="2">
         <v>19</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D536" s="15">
         <v>0</v>
@@ -24654,13 +24654,13 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B537" s="2">
         <v>22</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D537" s="15">
         <v>0</v>
@@ -24689,16 +24689,16 @@
     </row>
     <row r="538" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B538" s="2">
         <v>19</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D538" s="15" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E538">
         <v>3</v>
@@ -24724,16 +24724,16 @@
     </row>
     <row r="539" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B539" s="2">
         <v>21</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D539" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E539">
         <v>0</v>

--- a/01_data/Leap_Q_combined.xlsx
+++ b/01_data/Leap_Q_combined.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataliehennig/Documents/language-and-emotion/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D58CDB9-AD14-A14F-985E-E3B69D9280BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2BA5D-283B-DE47-9647-5F4848D15F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{5D63B9C6-4C47-024D-A9E8-5A261856B1C4}"/>
   </bookViews>
@@ -3027,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0837D9BE-5256-AA4D-822C-71D8DD948064}">
   <dimension ref="A1:N539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="137" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5675,7 +5675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -6108,8 +6108,11 @@
       <c r="M75">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -6191,7 +6194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6519,7 +6522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>85</v>
       </c>
@@ -6560,7 +6563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>87</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>89</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6765,7 +6768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>91</v>
       </c>
@@ -6806,7 +6809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>93</v>
       </c>
@@ -6870,8 +6873,11 @@
       <c r="M94">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6912,7 +6918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>95</v>
       </c>
